--- a/xlsx/data_arrangement.xlsx
+++ b/xlsx/data_arrangement.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\gomezabajo\MuTChatbots\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFF3E3A-50E3-40B4-8A6D-2F576FBB4B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C887EBFC-98E6-430F-A3C1-6115AC245D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="2370" windowWidth="16935" windowHeight="10380" xr2:uid="{8EC57FAB-2FFF-4132-AD02-CC16AA42EBEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EC57FAB-2FFF-4132-AD02-CC16AA42EBEC}"/>
   </bookViews>
   <sheets>
     <sheet name="so far" sheetId="2" r:id="rId1"/>
@@ -43,8 +38,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>jdela</author>
-    <author>Pablo Gómez Abajo</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0" shapeId="0" xr:uid="{56ACB542-41B2-4B65-B20D-966206E6571D}">
@@ -103,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{FAF19CCF-F82A-4333-B349-F44594BBB025}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{FAF19CCF-F82A-4333-B349-F44594BBB025}">
       <text>
         <r>
           <rPr>
@@ -124,7 +118,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>jdela</author>
+    <author>Autor</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0" shapeId="0" xr:uid="{989895C1-3C24-4430-9B21-26782F915022}">
